--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusuf.ab\src\vendor\yus\wrs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A42514F-71C3-4411-B23C-0F52F7253394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4F1D45-540A-49EC-9C42-84B657C8E717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F4DE3FFB-E8F9-4F13-B33D-2A4E6CCEEEDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F4DE3FFB-E8F9-4F13-B33D-2A4E6CCEEEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,16 +35,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Hello World !</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +73,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +103,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15CE154-AAB8-4396-8272-8554AEAF3353}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,4 +456,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6B8A64-CD6D-4F2D-8F76-C2AB5C8066C0}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>